--- a/output/CodeSystem-nigeria-relationship.xlsx
+++ b/output/CodeSystem-nigeria-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T06:29:04+01:00</t>
+    <t>2025-06-25T15:41:07+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
